--- a/BasesDeDatos/Modelo relacional.xlsx
+++ b/BasesDeDatos/Modelo relacional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rubén\Desktop\P integrador\AdraKode\BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\P_Integrador\AdraKode\BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E51DBBB-68EE-48B3-8BD3-30B2F68A7301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC6424-B75A-4FED-AF47-3D551BD0A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7618F4D9-479A-4AC0-82AA-BBA1ACB340F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7618F4D9-479A-4AC0-82AA-BBA1ACB340F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -239,15 +239,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,15 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -604,48 +601,51 @@
   <dimension ref="B2:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -657,7 +657,7 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -675,14 +675,26 @@
       <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,10 +705,14 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -707,10 +723,14 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -721,10 +741,14 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,33 +759,39 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="K11" s="9" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="N11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="4"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -782,35 +812,23 @@
       <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -821,14 +839,10 @@
       <c r="I13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -839,14 +853,10 @@
       <c r="I14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -857,14 +867,10 @@
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -875,20 +881,16 @@
       <c r="I16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
